--- a/Output/Drive/19. Cultura.xlsx
+++ b/Output/Drive/19. Cultura.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
-  <si>
-    <t xml:space="preserve">Municipio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+  <si>
+    <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
     <t xml:space="preserve">Bibliotecas públicas</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Centros y unidades deportivas</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
+    <t xml:space="preserve">13001</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
+    <t xml:space="preserve">13002</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">1128</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
+    <t xml:space="preserve">13003</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">9878</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
+    <t xml:space="preserve">13004</t>
   </si>
   <si>
     <t xml:space="preserve">5864</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">2194</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
+    <t xml:space="preserve">13005</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">11467</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
+    <t xml:space="preserve">13006</t>
   </si>
   <si>
     <t xml:space="preserve">12505</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">3345</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
+    <t xml:space="preserve">13007</t>
   </si>
   <si>
     <t xml:space="preserve">5657</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">3905</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
+    <t xml:space="preserve">13008</t>
   </si>
   <si>
     <t xml:space="preserve">13501</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">8493</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
+    <t xml:space="preserve">13010</t>
   </si>
   <si>
     <t xml:space="preserve">11535</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">12333</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
+    <t xml:space="preserve">13011</t>
   </si>
   <si>
     <t xml:space="preserve">8328</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">2893</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
+    <t xml:space="preserve">13013</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">9601</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
+    <t xml:space="preserve">13012</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">14187</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
+    <t xml:space="preserve">13014</t>
   </si>
   <si>
     <t xml:space="preserve">8799</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">2509</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
+    <t xml:space="preserve">13015</t>
   </si>
   <si>
     <t xml:space="preserve">17312</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">5063</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
+    <t xml:space="preserve">13017</t>
   </si>
   <si>
     <t xml:space="preserve">8049</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">1960</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
+    <t xml:space="preserve">13018</t>
   </si>
   <si>
     <t xml:space="preserve">15529</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">7494</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
+    <t xml:space="preserve">13019</t>
   </si>
   <si>
     <t xml:space="preserve">10369</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">5045</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
+    <t xml:space="preserve">13016</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">20419</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
+    <t xml:space="preserve">13009</t>
   </si>
   <si>
     <t xml:space="preserve">17043</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">6855</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
+    <t xml:space="preserve">13020</t>
   </si>
   <si>
     <t xml:space="preserve">14055</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">4020</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
+    <t xml:space="preserve">13021</t>
   </si>
   <si>
     <t xml:space="preserve">13222</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">9533</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
+    <t xml:space="preserve">13022</t>
   </si>
   <si>
     <t xml:space="preserve">15434</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">19029</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
+    <t xml:space="preserve">13023</t>
   </si>
   <si>
     <t xml:space="preserve">14632</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">15225</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
+    <t xml:space="preserve">13024</t>
   </si>
   <si>
     <t xml:space="preserve">2676</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">1662</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
+    <t xml:space="preserve">13025</t>
   </si>
   <si>
     <t xml:space="preserve">11922</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">2131</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
+    <t xml:space="preserve">13026</t>
   </si>
   <si>
     <t xml:space="preserve">8674</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">1011</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
+    <t xml:space="preserve">13027</t>
   </si>
   <si>
     <t xml:space="preserve">12002</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">1109</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
+    <t xml:space="preserve">13028</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">13067</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
+    <t xml:space="preserve">13029</t>
   </si>
   <si>
     <t xml:space="preserve">23908</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">5078</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
+    <t xml:space="preserve">13030</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">24002</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
+    <t xml:space="preserve">13031</t>
   </si>
   <si>
     <t xml:space="preserve">25176</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">8122</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
+    <t xml:space="preserve">13032</t>
   </si>
   <si>
     <t xml:space="preserve">5689</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">1812</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
+    <t xml:space="preserve">13033</t>
   </si>
   <si>
     <t xml:space="preserve">6730</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">1417</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
+    <t xml:space="preserve">13040</t>
   </si>
   <si>
     <t xml:space="preserve">7339</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">5478</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
+    <t xml:space="preserve">13034</t>
   </si>
   <si>
     <t xml:space="preserve">10929</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">5770</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
+    <t xml:space="preserve">13035</t>
   </si>
   <si>
     <t xml:space="preserve">10858</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">2462</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
+    <t xml:space="preserve">13037</t>
   </si>
   <si>
     <t xml:space="preserve">13696</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">1563</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
+    <t xml:space="preserve">13051</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">24691</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
+    <t xml:space="preserve">13038</t>
   </si>
   <si>
     <t xml:space="preserve">10224</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">3598</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
+    <t xml:space="preserve">13039</t>
   </si>
   <si>
     <t xml:space="preserve">6956</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">1773</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
+    <t xml:space="preserve">13041</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">35374</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
+    <t xml:space="preserve">13042</t>
   </si>
   <si>
     <t xml:space="preserve">8303</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">483</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
+    <t xml:space="preserve">13043</t>
   </si>
   <si>
     <t xml:space="preserve">11738</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2736</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
+    <t xml:space="preserve">13044</t>
   </si>
   <si>
     <t xml:space="preserve">20879</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">16829</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
+    <t xml:space="preserve">13045</t>
   </si>
   <si>
     <t xml:space="preserve">7570</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">562</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
+    <t xml:space="preserve">13048</t>
   </si>
   <si>
     <t xml:space="preserve">41</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">30917</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
+    <t xml:space="preserve">13047</t>
   </si>
   <si>
     <t xml:space="preserve">10938</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">520</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
+    <t xml:space="preserve">13049</t>
   </si>
   <si>
     <t xml:space="preserve">10169</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">4776</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
+    <t xml:space="preserve">13050</t>
   </si>
   <si>
     <t xml:space="preserve">11189</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">6186</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
+    <t xml:space="preserve">13036</t>
   </si>
   <si>
     <t xml:space="preserve">5621</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">1922</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
+    <t xml:space="preserve">13052</t>
   </si>
   <si>
     <t xml:space="preserve">9157</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">6411</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
+    <t xml:space="preserve">13053</t>
   </si>
   <si>
     <t xml:space="preserve">8247</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">886</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
+    <t xml:space="preserve">13046</t>
   </si>
   <si>
     <t xml:space="preserve">10816</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">8517</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
+    <t xml:space="preserve">13054</t>
   </si>
   <si>
     <t xml:space="preserve">19474</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">32473</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
+    <t xml:space="preserve">13055</t>
   </si>
   <si>
     <t xml:space="preserve">7977</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">4459</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
+    <t xml:space="preserve">13056</t>
   </si>
   <si>
     <t xml:space="preserve">11095</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">23979</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
+    <t xml:space="preserve">13057</t>
   </si>
   <si>
     <t xml:space="preserve">8413</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">3683</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
+    <t xml:space="preserve">13058</t>
   </si>
   <si>
     <t xml:space="preserve">6755</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">13205</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
+    <t xml:space="preserve">13059</t>
   </si>
   <si>
     <t xml:space="preserve">16027</t>
@@ -962,10 +962,7 @@
     <t xml:space="preserve">9490</t>
   </si>
   <si>
-    <t xml:space="preserve">13003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenango de Doria</t>
+    <t xml:space="preserve">13060</t>
   </si>
   <si>
     <t xml:space="preserve">8015</t>
@@ -980,7 +977,7 @@
     <t xml:space="preserve">1777</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
+    <t xml:space="preserve">13061</t>
   </si>
   <si>
     <t xml:space="preserve">17507</t>
@@ -995,7 +992,7 @@
     <t xml:space="preserve">6069</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
+    <t xml:space="preserve">13062</t>
   </si>
   <si>
     <t xml:space="preserve">29635</t>
@@ -1010,7 +1007,7 @@
     <t xml:space="preserve">8549</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
+    <t xml:space="preserve">13063</t>
   </si>
   <si>
     <t xml:space="preserve">31821</t>
@@ -1025,7 +1022,7 @@
     <t xml:space="preserve">109715</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
+    <t xml:space="preserve">13064</t>
   </si>
   <si>
     <t xml:space="preserve">9197</t>
@@ -1040,7 +1037,7 @@
     <t xml:space="preserve">931</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
+    <t xml:space="preserve">13065</t>
   </si>
   <si>
     <t xml:space="preserve">13634</t>
@@ -1055,9 +1052,6 @@
     <t xml:space="preserve">5629</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
-  </si>
-  <si>
     <t xml:space="preserve">36685</t>
   </si>
   <si>
@@ -1070,7 +1064,7 @@
     <t xml:space="preserve">33080</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
+    <t xml:space="preserve">13068</t>
   </si>
   <si>
     <t xml:space="preserve">12709</t>
@@ -1085,7 +1079,7 @@
     <t xml:space="preserve">2362</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
+    <t xml:space="preserve">13069</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -1103,7 +1097,7 @@
     <t xml:space="preserve">10466</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
+    <t xml:space="preserve">13070</t>
   </si>
   <si>
     <t xml:space="preserve">13337</t>
@@ -1118,7 +1112,7 @@
     <t xml:space="preserve">6941</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
+    <t xml:space="preserve">13071</t>
   </si>
   <si>
     <t xml:space="preserve">7837</t>
@@ -1133,7 +1127,7 @@
     <t xml:space="preserve">2114</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
+    <t xml:space="preserve">13072</t>
   </si>
   <si>
     <t xml:space="preserve">10227</t>
@@ -1148,7 +1142,7 @@
     <t xml:space="preserve">9310</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
+    <t xml:space="preserve">13073</t>
   </si>
   <si>
     <t xml:space="preserve">9573</t>
@@ -1163,7 +1157,7 @@
     <t xml:space="preserve">3295</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
+    <t xml:space="preserve">13074</t>
   </si>
   <si>
     <t xml:space="preserve">14939</t>
@@ -1178,7 +1172,7 @@
     <t xml:space="preserve">8056</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
+    <t xml:space="preserve">13075</t>
   </si>
   <si>
     <t xml:space="preserve">3934</t>
@@ -1193,7 +1187,7 @@
     <t xml:space="preserve">3246</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
+    <t xml:space="preserve">13076</t>
   </si>
   <si>
     <t xml:space="preserve">34902</t>
@@ -1208,7 +1202,7 @@
     <t xml:space="preserve">53136</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
+    <t xml:space="preserve">13077</t>
   </si>
   <si>
     <t xml:space="preserve">19</t>
@@ -1226,7 +1220,7 @@
     <t xml:space="preserve">69048</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
+    <t xml:space="preserve">13066</t>
   </si>
   <si>
     <t xml:space="preserve">15880</t>
@@ -1238,7 +1232,7 @@
     <t xml:space="preserve">30658</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
+    <t xml:space="preserve">13078</t>
   </si>
   <si>
     <t xml:space="preserve">8618</t>
@@ -1253,7 +1247,7 @@
     <t xml:space="preserve">609</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
+    <t xml:space="preserve">13079</t>
   </si>
   <si>
     <t xml:space="preserve">6811</t>
@@ -1268,7 +1262,7 @@
     <t xml:space="preserve">3037</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
+    <t xml:space="preserve">13080</t>
   </si>
   <si>
     <t xml:space="preserve">5003</t>
@@ -1283,7 +1277,7 @@
     <t xml:space="preserve">569</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
+    <t xml:space="preserve">13081</t>
   </si>
   <si>
     <t xml:space="preserve">17856</t>
@@ -1298,7 +1292,7 @@
     <t xml:space="preserve">1672</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
+    <t xml:space="preserve">13082</t>
   </si>
   <si>
     <t xml:space="preserve">10365</t>
@@ -1313,7 +1307,7 @@
     <t xml:space="preserve">15248</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
+    <t xml:space="preserve">13083</t>
   </si>
   <si>
     <t xml:space="preserve">16425</t>
@@ -1328,7 +1322,7 @@
     <t xml:space="preserve">9208</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimapán</t>
+    <t xml:space="preserve">13084</t>
   </si>
   <si>
     <t xml:space="preserve">13915</t>
@@ -3198,7 +3192,7 @@
         <v>315</v>
       </c>
       <c r="G60" t="s">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
         <v>9</v>
@@ -3206,25 +3200,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
         <v>317</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>318</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>319</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>320</v>
-      </c>
-      <c r="G61" t="s">
-        <v>321</v>
       </c>
       <c r="H61" t="s">
         <v>16</v>
@@ -3232,25 +3226,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
         <v>322</v>
       </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>323</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>324</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>325</v>
-      </c>
-      <c r="G62" t="s">
-        <v>326</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -3258,7 +3252,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s">
         <v>221</v>
@@ -3267,16 +3261,16 @@
         <v>221</v>
       </c>
       <c r="D63" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" t="s">
         <v>328</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>329</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>330</v>
-      </c>
-      <c r="G63" t="s">
-        <v>331</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -3284,7 +3278,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -3293,16 +3287,16 @@
         <v>163</v>
       </c>
       <c r="D64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" t="s">
         <v>333</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>334</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>335</v>
-      </c>
-      <c r="G64" t="s">
-        <v>336</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
@@ -3310,25 +3304,25 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
         <v>337</v>
       </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>338</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>339</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>340</v>
-      </c>
-      <c r="G65" t="s">
-        <v>341</v>
       </c>
       <c r="H65" t="s">
         <v>16</v>
@@ -3336,7 +3330,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
@@ -3345,16 +3339,16 @@
         <v>33</v>
       </c>
       <c r="D66" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" t="s">
         <v>343</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>344</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>345</v>
-      </c>
-      <c r="G66" t="s">
-        <v>346</v>
       </c>
       <c r="H66" t="s">
         <v>22</v>
@@ -3362,7 +3356,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
         <v>101</v>
@@ -3371,16 +3365,16 @@
         <v>221</v>
       </c>
       <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="E67" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" t="s">
         <v>348</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>349</v>
-      </c>
-      <c r="F67" t="s">
-        <v>350</v>
-      </c>
-      <c r="G67" t="s">
-        <v>351</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -3388,7 +3382,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -3397,16 +3391,16 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68" t="s">
         <v>353</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>354</v>
-      </c>
-      <c r="F68" t="s">
-        <v>355</v>
-      </c>
-      <c r="G68" t="s">
-        <v>356</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -3414,25 +3408,25 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
       </c>
       <c r="C69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" t="s">
         <v>358</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>359</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>360</v>
-      </c>
-      <c r="F69" t="s">
-        <v>361</v>
-      </c>
-      <c r="G69" t="s">
-        <v>362</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -3440,25 +3434,25 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>361</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" t="s">
         <v>363</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>364</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>365</v>
-      </c>
-      <c r="F70" t="s">
-        <v>366</v>
-      </c>
-      <c r="G70" t="s">
-        <v>367</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -3466,25 +3460,25 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>367</v>
+      </c>
+      <c r="E71" t="s">
         <v>368</v>
       </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>369</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>370</v>
-      </c>
-      <c r="F71" t="s">
-        <v>371</v>
-      </c>
-      <c r="G71" t="s">
-        <v>372</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -3492,25 +3486,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>372</v>
+      </c>
+      <c r="E72" t="s">
         <v>373</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>374</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>375</v>
-      </c>
-      <c r="F72" t="s">
-        <v>376</v>
-      </c>
-      <c r="G72" t="s">
-        <v>377</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -3518,7 +3512,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -3527,16 +3521,16 @@
         <v>64</v>
       </c>
       <c r="D73" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" t="s">
         <v>379</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>380</v>
-      </c>
-      <c r="F73" t="s">
-        <v>381</v>
-      </c>
-      <c r="G73" t="s">
-        <v>382</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -3544,7 +3538,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
@@ -3553,16 +3547,16 @@
         <v>33</v>
       </c>
       <c r="D74" t="s">
+        <v>382</v>
+      </c>
+      <c r="E74" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" t="s">
         <v>384</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>385</v>
-      </c>
-      <c r="F74" t="s">
-        <v>386</v>
-      </c>
-      <c r="G74" t="s">
-        <v>387</v>
       </c>
       <c r="H74" t="s">
         <v>9</v>
@@ -3570,7 +3564,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -3579,16 +3573,16 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" t="s">
+        <v>388</v>
+      </c>
+      <c r="F75" t="s">
         <v>389</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>390</v>
-      </c>
-      <c r="F75" t="s">
-        <v>391</v>
-      </c>
-      <c r="G75" t="s">
-        <v>392</v>
       </c>
       <c r="H75" t="s">
         <v>16</v>
@@ -3596,7 +3590,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s">
         <v>64</v>
@@ -3605,16 +3599,16 @@
         <v>164</v>
       </c>
       <c r="D76" t="s">
+        <v>392</v>
+      </c>
+      <c r="E76" t="s">
+        <v>393</v>
+      </c>
+      <c r="F76" t="s">
         <v>394</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>395</v>
-      </c>
-      <c r="F76" t="s">
-        <v>396</v>
-      </c>
-      <c r="G76" t="s">
-        <v>397</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -3622,25 +3616,25 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B77" t="s">
         <v>221</v>
       </c>
       <c r="C77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D77" t="s">
+        <v>398</v>
+      </c>
+      <c r="E77" t="s">
         <v>399</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>400</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>401</v>
-      </c>
-      <c r="F77" t="s">
-        <v>402</v>
-      </c>
-      <c r="G77" t="s">
-        <v>403</v>
       </c>
       <c r="H77" t="s">
         <v>16</v>
@@ -3648,7 +3642,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -3660,13 +3654,13 @@
         <v>127</v>
       </c>
       <c r="E78" t="s">
+        <v>403</v>
+      </c>
+      <c r="F78" t="s">
+        <v>404</v>
+      </c>
+      <c r="G78" t="s">
         <v>405</v>
-      </c>
-      <c r="F78" t="s">
-        <v>406</v>
-      </c>
-      <c r="G78" t="s">
-        <v>407</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
@@ -3674,25 +3668,25 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>406</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>407</v>
+      </c>
+      <c r="E79" t="s">
         <v>408</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>409</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>410</v>
-      </c>
-      <c r="F79" t="s">
-        <v>411</v>
-      </c>
-      <c r="G79" t="s">
-        <v>412</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3700,31 +3694,31 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>411</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>412</v>
+      </c>
+      <c r="E80" t="s">
         <v>413</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>414</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>415</v>
-      </c>
-      <c r="F80" t="s">
-        <v>416</v>
-      </c>
-      <c r="G80" t="s">
-        <v>417</v>
       </c>
       <c r="H80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -3733,16 +3727,16 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81" t="s">
+        <v>418</v>
+      </c>
+      <c r="F81" t="s">
         <v>419</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>420</v>
-      </c>
-      <c r="F81" t="s">
-        <v>421</v>
-      </c>
-      <c r="G81" t="s">
-        <v>422</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3750,31 +3744,31 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>422</v>
+      </c>
+      <c r="E82" t="s">
         <v>423</v>
       </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>424</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>425</v>
-      </c>
-      <c r="F82" t="s">
-        <v>426</v>
-      </c>
-      <c r="G82" t="s">
-        <v>427</v>
       </c>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
@@ -3783,16 +3777,16 @@
         <v>64</v>
       </c>
       <c r="D83" t="s">
+        <v>427</v>
+      </c>
+      <c r="E83" t="s">
+        <v>428</v>
+      </c>
+      <c r="F83" t="s">
         <v>429</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>430</v>
-      </c>
-      <c r="F83" t="s">
-        <v>431</v>
-      </c>
-      <c r="G83" t="s">
-        <v>432</v>
       </c>
       <c r="H83" t="s">
         <v>16</v>
@@ -3800,7 +3794,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B84" t="s">
         <v>70</v>
@@ -3809,16 +3803,16 @@
         <v>70</v>
       </c>
       <c r="D84" t="s">
+        <v>432</v>
+      </c>
+      <c r="E84" t="s">
+        <v>433</v>
+      </c>
+      <c r="F84" t="s">
         <v>434</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>435</v>
-      </c>
-      <c r="F84" t="s">
-        <v>436</v>
-      </c>
-      <c r="G84" t="s">
-        <v>437</v>
       </c>
       <c r="H84" t="s">
         <v>16</v>
@@ -3826,7 +3820,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
@@ -3835,16 +3829,16 @@
         <v>22</v>
       </c>
       <c r="D85" t="s">
+        <v>437</v>
+      </c>
+      <c r="E85" t="s">
+        <v>438</v>
+      </c>
+      <c r="F85" t="s">
         <v>439</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>440</v>
-      </c>
-      <c r="F85" t="s">
-        <v>441</v>
-      </c>
-      <c r="G85" t="s">
-        <v>442</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
